--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>42.65422447916712</v>
+        <v>45.32995691321333</v>
       </c>
       <c r="R2">
-        <v>383.8880203125041</v>
+        <v>407.96961221892</v>
       </c>
       <c r="S2">
-        <v>0.003256400933895297</v>
+        <v>0.00431298434558705</v>
       </c>
       <c r="T2">
-        <v>0.003256400933895297</v>
+        <v>0.004312984345587049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>72.41222893236923</v>
+        <v>431.8636410046973</v>
       </c>
       <c r="R3">
-        <v>651.7100603913231</v>
+        <v>3886.772769042276</v>
       </c>
       <c r="S3">
-        <v>0.005528250784068917</v>
+        <v>0.04109029105515311</v>
       </c>
       <c r="T3">
-        <v>0.005528250784068917</v>
+        <v>0.0410902910551531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>31.14805064026556</v>
+        <v>185.7657298778533</v>
       </c>
       <c r="R4">
-        <v>280.33245576239</v>
+        <v>1671.89156890068</v>
       </c>
       <c r="S4">
-        <v>0.0023779717585422</v>
+        <v>0.01767494918302446</v>
       </c>
       <c r="T4">
-        <v>0.0023779717585422</v>
+        <v>0.01767494918302446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>530.4508181024054</v>
+        <v>94.52216347304667</v>
       </c>
       <c r="R5">
-        <v>4774.057362921649</v>
+        <v>850.69947125742</v>
       </c>
       <c r="S5">
-        <v>0.04049682207439647</v>
+        <v>0.008993448022701229</v>
       </c>
       <c r="T5">
-        <v>0.04049682207439647</v>
+        <v>0.008993448022701227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>900.5233724634808</v>
@@ -818,10 +818,10 @@
         <v>8104.710352171327</v>
       </c>
       <c r="S6">
-        <v>0.06874970033781475</v>
+        <v>0.08568159938263939</v>
       </c>
       <c r="T6">
-        <v>0.06874970033781473</v>
+        <v>0.08568159938263938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>387.3592626796867</v>
@@ -880,10 +880,10 @@
         <v>3486.23336411718</v>
       </c>
       <c r="S7">
-        <v>0.02957261748737709</v>
+        <v>0.03685585757900075</v>
       </c>
       <c r="T7">
-        <v>0.02957261748737709</v>
+        <v>0.03685585757900074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H8">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I8">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J8">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>3248.059808937426</v>
+        <v>578.7787100204756</v>
       </c>
       <c r="R8">
-        <v>29232.53828043683</v>
+        <v>5209.00839018428</v>
       </c>
       <c r="S8">
-        <v>0.247970397406652</v>
+        <v>0.05506873789129362</v>
       </c>
       <c r="T8">
-        <v>0.247970397406652</v>
+        <v>0.05506873789129361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H9">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I9">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J9">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>5514.090417601632</v>
@@ -1004,10 +1004,10 @@
         <v>49626.81375841469</v>
       </c>
       <c r="S9">
-        <v>0.4209686005246925</v>
+        <v>0.5246461119916723</v>
       </c>
       <c r="T9">
-        <v>0.4209686005246925</v>
+        <v>0.5246461119916722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>153.9412893333333</v>
       </c>
       <c r="H10">
-        <v>461.823868</v>
+        <v>461.8238680000001</v>
       </c>
       <c r="I10">
-        <v>0.8500182366239053</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="J10">
-        <v>0.8500182366239052</v>
+        <v>0.8053908704318941</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>2371.880690523569</v>
@@ -1066,10 +1066,10 @@
         <v>21346.92621471212</v>
       </c>
       <c r="S10">
-        <v>0.1810792386925608</v>
+        <v>0.2256760205489281</v>
       </c>
       <c r="T10">
-        <v>0.1810792386925608</v>
+        <v>0.2256760205489281</v>
       </c>
     </row>
   </sheetData>
